--- a/results/I3_N5_M2_T15_C150_DepCentral_s4_P3_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s4_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855.3569411636848</v>
+        <v>422.7307425503977</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.806890826763861</v>
+        <v>0.6350307079189164</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.693089440038631</v>
+        <v>0.6350307079189164</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>570.0300000000125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.71</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,56 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -791,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -907,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>12.18397443193427</v>
       </c>
     </row>
     <row r="4">
@@ -931,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4.350287346831241</v>
       </c>
     </row>
     <row r="7">
@@ -969,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,85 +957,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8399999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1193,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.6949999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1204,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>161.6799999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>160.4149999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1226,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.6049999999998</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1237,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>135.9800000000007</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -1248,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.4300000000007</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>148.2900000000007</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -1270,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>153.45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -1281,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>147.0200000000007</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
@@ -1292,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>188.0750000000015</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -1303,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>196.6550000000015</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
@@ -1314,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>200.4400000000014</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>203.0950000000014</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
@@ -1336,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>195.5150000000015</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
@@ -1347,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1358,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1369,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1380,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -1391,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -1402,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.89499999999971</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1413,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1424,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1435,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.6849999999997</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1446,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1457,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>188.0750000000015</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>196.6550000000015</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -1479,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>200.4400000000014</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1490,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>203.0950000000014</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -1501,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>195.5150000000015</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -1512,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.8399999999998</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
@@ -1523,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.6949999999998</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
@@ -1534,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.6799999999998</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40">
@@ -1545,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>160.4149999999998</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
@@ -1556,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>151.6049999999998</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>38.07500000000147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1614,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>46.65500000000145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1625,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>50.44000000000145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1636,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>53.09500000000145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>45.51500000000146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1658,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.8399999999998</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1669,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.69499999999977</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1680,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.67999999999978</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1691,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.41499999999979</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1702,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.604999999999791</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1760,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1771,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1793,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1804,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1815,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1826,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1837,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1848,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1859,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1870,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1881,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1892,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1903,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1914,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1936,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1947,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -1958,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1969,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1980,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1991,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2002,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2013,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +1913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2054,7 +1940,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2065,7 +1951,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2076,7 +1962,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2087,7 +1973,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2098,78 +1984,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>
